--- a/ResultadoEleicoesDistritos/COIMBRA_LOUSÃ.xlsx
+++ b/ResultadoEleicoesDistritos/COIMBRA_LOUSÃ.xlsx
@@ -597,64 +597,64 @@
         <v>4582</v>
       </c>
       <c r="H2" t="n">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I2" t="n">
-        <v>466</v>
+        <v>448</v>
       </c>
       <c r="J2" t="n">
-        <v>1912</v>
+        <v>1884</v>
       </c>
       <c r="K2" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="N2" t="n">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
         <v>26</v>
       </c>
       <c r="S2" t="n">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="T2" t="n">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="U2" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="V2" t="n">
-        <v>2952</v>
+        <v>2929</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>2929</v>
+        <v>2942</v>
       </c>
       <c r="Y2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z2" t="n">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="AA2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
